--- a/xlsx/country_comparison/synthetic_indicators_dem_mean.xlsx
+++ b/xlsx/country_comparison/synthetic_indicators_dem_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tertiary diploma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural urbanicity</t>
   </si>
   <si>
     <t xml:space="preserve">Cities urbanicity</t>
@@ -449,13 +446,10 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0000000000000000207307241950892</v>
@@ -482,27 +476,24 @@
         <v>0.0476927714439944</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0926036896910568</v>
+        <v>-0.0209304165965001</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0209304165965001</v>
+        <v>0.166861933431716</v>
       </c>
       <c r="L2" t="n">
-        <v>0.166861933431716</v>
+        <v>0.00732263567795514</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00732263567795514</v>
+        <v>-0.0932231318600637</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0932231318600637</v>
-      </c>
-      <c r="O2" t="n">
         <v>-0.0136895324867474</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.507215782676892</v>
@@ -529,27 +520,24 @@
         <v>0.546731320431902</v>
       </c>
       <c r="J3" t="n">
-        <v>0.493043985533185</v>
+        <v>0.498505046012949</v>
       </c>
       <c r="K3" t="n">
-        <v>0.498505046012949</v>
+        <v>0.508075600684996</v>
       </c>
       <c r="L3" t="n">
-        <v>0.508075600684996</v>
+        <v>0.496986384709668</v>
       </c>
       <c r="M3" t="n">
-        <v>0.496986384709668</v>
+        <v>0.512142319587877</v>
       </c>
       <c r="N3" t="n">
-        <v>0.512142319587877</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.518500226551137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.205874364878658</v>
@@ -576,27 +564,24 @@
         <v>0.205945599884452</v>
       </c>
       <c r="J4" t="n">
-        <v>0.231541029819709</v>
+        <v>0.206748580479692</v>
       </c>
       <c r="K4" t="n">
-        <v>0.206748580479692</v>
+        <v>0.185724572582548</v>
       </c>
       <c r="L4" t="n">
-        <v>0.185724572582548</v>
+        <v>0.199141651044195</v>
       </c>
       <c r="M4" t="n">
-        <v>0.199141651044195</v>
+        <v>0.220211663752089</v>
       </c>
       <c r="N4" t="n">
-        <v>0.220211663752089</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.22479211606961</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.301341417798234</v>
@@ -623,27 +608,24 @@
         <v>0.340785720547451</v>
       </c>
       <c r="J5" t="n">
-        <v>0.261502955713475</v>
+        <v>0.291756465533257</v>
       </c>
       <c r="K5" t="n">
-        <v>0.291756465533257</v>
+        <v>0.322351028102447</v>
       </c>
       <c r="L5" t="n">
-        <v>0.322351028102447</v>
+        <v>0.297844733665473</v>
       </c>
       <c r="M5" t="n">
-        <v>0.297844733665473</v>
+        <v>0.291930655835788</v>
       </c>
       <c r="N5" t="n">
-        <v>0.291930655835788</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.293708110481527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.701230168762265</v>
@@ -670,21 +652,18 @@
         <v>0.717305797033442</v>
       </c>
       <c r="J6" t="n">
-        <v>0.675813485895943</v>
+        <v>0.699195399836836</v>
       </c>
       <c r="K6" t="n">
-        <v>0.699195399836836</v>
+        <v>0.717419269824049</v>
       </c>
       <c r="L6" t="n">
-        <v>0.717419269824049</v>
+        <v>0.701409972687522</v>
       </c>
       <c r="M6" t="n">
-        <v>0.701409972687522</v>
+        <v>0.692657077070307</v>
       </c>
       <c r="N6" t="n">
-        <v>0.692657077070307</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.68728416972585</v>
       </c>
     </row>
